--- a/文档/日报/数字货币_单元测试记录_V1.2.xlsx
+++ b/文档/日报/数字货币_单元测试记录_V1.2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE04EB0-AE70-4C80-B54F-44F7AB84940F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73716448-D92D-48F8-ADEF-2B4CF5938546}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="行内差错" sheetId="15" r:id="rId1"/>
     <sheet name="bak" sheetId="16" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,62 @@
     <t>补登冲正流水
 更新原流水被冲正
 更新差错处理状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补登原记账流水
+登记冲正流水
+更新原流水已冲正
+更新初始表流水被冲正
+登记业务终态表
+更新差错处理状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款兑出异常 回查失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款兑出异常 冲正超时</t>
+  </si>
+  <si>
+    <t>汇款兑出异常 冲正失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记账回查失败，进行行内差错冲账，差错回查记账成功，冲正成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记账回查失败，进行行内差错冲账，差错回查记账失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记账冲正失败，进行行内差错冲账，差错冲正成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记冲正流水
+更新原流水被冲正
+更新初始表流水被冲正
+登记业务终态表
+更新差错处理状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记账冲正超时，进行行内差错冲账，差错回查记账成功，冲正成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记冲正流水
+更新原流水已冲正
+更新初始表流水被冲正
+登记业务终态表
+更新差错处理状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记账冲正超时，进行行内差错冲账，差错回查记账失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,9 +547,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -513,6 +566,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -925,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B07D7F8-7FA7-455B-96A0-F6B03118F1C3}">
-  <dimension ref="B2:J36"/>
+  <dimension ref="B2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -945,17 +1001,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
@@ -1083,15 +1139,15 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
@@ -1169,15 +1225,15 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
@@ -1280,17 +1336,17 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="2:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="2:10" ht="72" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1307,9 +1363,11 @@
         <v>62</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
@@ -1332,22 +1390,24 @@
       <c r="G19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="2:10" ht="72" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
@@ -1357,33 +1417,49 @@
       <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="16"/>
+      <c r="E21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="36" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="16"/>
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1391,27 +1467,47 @@
       <c r="D23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="16"/>
+      <c r="E23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="15"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+    <row r="24" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" ht="60" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1420,34 +1516,32 @@
         <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="H25" s="15"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="2:10" ht="60" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -1459,70 +1553,84 @@
         <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="16"/>
+      <c r="H27" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="2:10" ht="60" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H29" s="15"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="1"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
@@ -1580,6 +1688,28 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/文档/日报/数字货币_单元测试记录_V1.2.xlsx
+++ b/文档/日报/数字货币_单元测试记录_V1.2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73716448-D92D-48F8-ADEF-2B4CF5938546}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9348B515-6E3E-42A2-8015-01EB2DDCD531}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,7 +521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -563,9 +563,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -668,7 +665,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -983,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B07D7F8-7FA7-455B-96A0-F6B03118F1C3}">
   <dimension ref="B2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1001,17 +998,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
@@ -1476,7 +1473,9 @@
       <c r="G23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
@@ -1524,7 +1523,9 @@
       <c r="G25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
@@ -1594,7 +1595,9 @@
       <c r="G29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
